--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Edn3-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Edn3-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Edn3</t>
+  </si>
+  <si>
+    <t>Ednra</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Edn3</t>
-  </si>
-  <si>
-    <t>Ednra</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1264883333333333</v>
+        <v>0.06003666666666666</v>
       </c>
       <c r="H2">
-        <v>0.379465</v>
+        <v>0.18011</v>
       </c>
       <c r="I2">
-        <v>0.02599875961803032</v>
+        <v>0.007162610180657564</v>
       </c>
       <c r="J2">
-        <v>0.02599875961803032</v>
+        <v>0.007162610180657565</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.614605666666666</v>
+        <v>1.164012</v>
       </c>
       <c r="N2">
-        <v>7.843817</v>
+        <v>3.492036</v>
       </c>
       <c r="O2">
-        <v>0.07238665237615236</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="P2">
-        <v>0.07238665237615237</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="Q2">
-        <v>0.3307171131005555</v>
+        <v>0.06988340043999998</v>
       </c>
       <c r="R2">
-        <v>2.976454017905</v>
+        <v>0.6289506039599999</v>
       </c>
       <c r="S2">
-        <v>0.001881963174681508</v>
+        <v>0.0001591804655058202</v>
       </c>
       <c r="T2">
-        <v>0.001881963174681509</v>
+        <v>0.0001591804655058202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1264883333333333</v>
+        <v>0.06003666666666666</v>
       </c>
       <c r="H3">
-        <v>0.379465</v>
+        <v>0.18011</v>
       </c>
       <c r="I3">
-        <v>0.02599875961803032</v>
+        <v>0.007162610180657564</v>
       </c>
       <c r="J3">
-        <v>0.02599875961803032</v>
+        <v>0.007162610180657565</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.70158366666667</v>
+        <v>14.70158366666666</v>
       </c>
       <c r="N3">
-        <v>44.10475100000001</v>
+        <v>44.10475099999999</v>
       </c>
       <c r="O3">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="P3">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="Q3">
-        <v>1.859578815357223</v>
+        <v>0.8826340780677776</v>
       </c>
       <c r="R3">
-        <v>16.736209338215</v>
+        <v>7.943706702609998</v>
       </c>
       <c r="S3">
-        <v>0.01058203132613847</v>
+        <v>0.002010464610100895</v>
       </c>
       <c r="T3">
-        <v>0.01058203132613847</v>
+        <v>0.002010464610100896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1264883333333333</v>
+        <v>0.06003666666666666</v>
       </c>
       <c r="H4">
-        <v>0.379465</v>
+        <v>0.18011</v>
       </c>
       <c r="I4">
-        <v>0.02599875961803032</v>
+        <v>0.007162610180657564</v>
       </c>
       <c r="J4">
-        <v>0.02599875961803032</v>
+        <v>0.007162610180657565</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.80380766666667</v>
+        <v>36.51120933333333</v>
       </c>
       <c r="N4">
-        <v>56.411423</v>
+        <v>109.533628</v>
       </c>
       <c r="O4">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="P4">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="Q4">
-        <v>2.378462292077223</v>
+        <v>2.192011304342222</v>
       </c>
       <c r="R4">
-        <v>21.406160628695</v>
+        <v>19.72810173908</v>
       </c>
       <c r="S4">
-        <v>0.01353476511721034</v>
+        <v>0.004992965105050848</v>
       </c>
       <c r="T4">
-        <v>0.01353476511721034</v>
+        <v>0.004992965105050849</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.06003666666666666</v>
+        <v>8.321916999999999</v>
       </c>
       <c r="H5">
-        <v>0.18011</v>
+        <v>24.965751</v>
       </c>
       <c r="I5">
-        <v>0.01234010144493811</v>
+        <v>0.9928373898193424</v>
       </c>
       <c r="J5">
-        <v>0.01234010144493811</v>
+        <v>0.9928373898193424</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.614605666666666</v>
+        <v>1.164012</v>
       </c>
       <c r="N5">
-        <v>7.843817</v>
+        <v>3.492036</v>
       </c>
       <c r="O5">
-        <v>0.07238665237615236</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="P5">
-        <v>0.07238665237615237</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="Q5">
-        <v>0.1569722088744444</v>
+        <v>9.686811251003997</v>
       </c>
       <c r="R5">
-        <v>1.41274987987</v>
+        <v>87.18130125903598</v>
       </c>
       <c r="S5">
-        <v>0.0008932586335811905</v>
+        <v>0.02206462642764087</v>
       </c>
       <c r="T5">
-        <v>0.0008932586335811906</v>
+        <v>0.02206462642764087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06003666666666666</v>
+        <v>8.321916999999999</v>
       </c>
       <c r="H6">
-        <v>0.18011</v>
+        <v>24.965751</v>
       </c>
       <c r="I6">
-        <v>0.01234010144493811</v>
+        <v>0.9928373898193424</v>
       </c>
       <c r="J6">
-        <v>0.01234010144493811</v>
+        <v>0.9928373898193424</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.70158366666667</v>
+        <v>14.70158366666666</v>
       </c>
       <c r="N6">
-        <v>44.10475100000001</v>
+        <v>44.10475099999999</v>
       </c>
       <c r="O6">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="P6">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="Q6">
-        <v>0.8826340780677779</v>
+        <v>122.3453590425556</v>
       </c>
       <c r="R6">
-        <v>7.943706702610001</v>
+        <v>1101.108231383001</v>
       </c>
       <c r="S6">
-        <v>0.005022675772866534</v>
+        <v>0.2786783568379936</v>
       </c>
       <c r="T6">
-        <v>0.005022675772866535</v>
+        <v>0.2786783568379936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.06003666666666666</v>
+        <v>8.321916999999999</v>
       </c>
       <c r="H7">
-        <v>0.18011</v>
+        <v>24.965751</v>
       </c>
       <c r="I7">
-        <v>0.01234010144493811</v>
+        <v>0.9928373898193424</v>
       </c>
       <c r="J7">
-        <v>0.01234010144493811</v>
+        <v>0.9928373898193424</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.80380766666667</v>
+        <v>36.51120933333333</v>
       </c>
       <c r="N7">
-        <v>56.411423</v>
+        <v>109.533628</v>
       </c>
       <c r="O7">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="P7">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="Q7">
-        <v>1.128917932947778</v>
+        <v>303.8432536416253</v>
       </c>
       <c r="R7">
-        <v>10.16026139653</v>
+        <v>2734.589282774628</v>
       </c>
       <c r="S7">
-        <v>0.006424167038490387</v>
+        <v>0.6920944065537079</v>
       </c>
       <c r="T7">
-        <v>0.006424167038490387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>4.678643</v>
-      </c>
-      <c r="H8">
-        <v>14.035929</v>
-      </c>
-      <c r="I8">
-        <v>0.9616611389370316</v>
-      </c>
-      <c r="J8">
-        <v>0.9616611389370315</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.614605666666666</v>
-      </c>
-      <c r="N8">
-        <v>7.843817</v>
-      </c>
-      <c r="O8">
-        <v>0.07238665237615236</v>
-      </c>
-      <c r="P8">
-        <v>0.07238665237615237</v>
-      </c>
-      <c r="Q8">
-        <v>12.23280650011033</v>
-      </c>
-      <c r="R8">
-        <v>110.095258500993</v>
-      </c>
-      <c r="S8">
-        <v>0.06961143056788967</v>
-      </c>
-      <c r="T8">
-        <v>0.06961143056788967</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>4.678643</v>
-      </c>
-      <c r="H9">
-        <v>14.035929</v>
-      </c>
-      <c r="I9">
-        <v>0.9616611389370316</v>
-      </c>
-      <c r="J9">
-        <v>0.9616611389370315</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>14.70158366666667</v>
-      </c>
-      <c r="N9">
-        <v>44.10475100000001</v>
-      </c>
-      <c r="O9">
-        <v>0.4070206225838465</v>
-      </c>
-      <c r="P9">
-        <v>0.4070206225838465</v>
-      </c>
-      <c r="Q9">
-        <v>68.78346151096434</v>
-      </c>
-      <c r="R9">
-        <v>619.0511535986791</v>
-      </c>
-      <c r="S9">
-        <v>0.3914159154848415</v>
-      </c>
-      <c r="T9">
-        <v>0.3914159154848415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>4.678643</v>
-      </c>
-      <c r="H10">
-        <v>14.035929</v>
-      </c>
-      <c r="I10">
-        <v>0.9616611389370316</v>
-      </c>
-      <c r="J10">
-        <v>0.9616611389370315</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>18.80380766666667</v>
-      </c>
-      <c r="N10">
-        <v>56.411423</v>
-      </c>
-      <c r="O10">
-        <v>0.5205927250400011</v>
-      </c>
-      <c r="P10">
-        <v>0.5205927250400011</v>
-      </c>
-      <c r="Q10">
-        <v>87.97630311299633</v>
-      </c>
-      <c r="R10">
-        <v>791.786728016967</v>
-      </c>
-      <c r="S10">
-        <v>0.5006337928843004</v>
-      </c>
-      <c r="T10">
-        <v>0.5006337928843003</v>
+        <v>0.6920944065537079</v>
       </c>
     </row>
   </sheetData>
